--- a/Data/collapsed database manual cases/coahuila_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/coahuila_collapsed_edited.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/coahuila/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunocalderon/Documents/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{B5F63B72-3313-BE43-87C1-0F8C9D9E2E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A2F81B0-667B-5948-A8A5-9FA16804B48E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189F7DD8-C736-2748-89D1-91FF2B760041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2194,10 +2194,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2490,8 +2486,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H265" sqref="H265:I265"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4425,7 +4421,7 @@
         <v>128</v>
       </c>
       <c r="H42" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="I42" t="s">
         <v>642</v>

--- a/Data/collapsed database manual cases/coahuila_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/coahuila_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunocalderon/Documents/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189F7DD8-C736-2748-89D1-91FF2B760041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C9881E-D968-0F4F-A47C-F23AC88C8077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25480" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="500" windowWidth="31360" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="715">
   <si>
     <t>uniqueid</t>
   </si>
@@ -2096,6 +2096,78 @@
   </si>
   <si>
     <t>https://vanguardia.com.mx/coahuila/saltillo/muere-leoncio-martinez-periodista-y-ex-alcalde-de-zaragoza-coahuila-ISVG3468743</t>
+  </si>
+  <si>
+    <t>PAN_UDC_MC</t>
+  </si>
+  <si>
+    <t>MARISOL TREVI√ëO PUENTE</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>YOLANDA CANTU MONCADA</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PES</t>
+  </si>
+  <si>
+    <t>JONATHAN AVALOS RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>DELIA PIMENTEL GOMEZ</t>
+  </si>
+  <si>
+    <t>HORACIO PI√ëA AVILA</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>LAURA MARA SILVA FERNANDEZ</t>
+  </si>
+  <si>
+    <t>RAMIRO PEREZ ARCINIEGA</t>
+  </si>
+  <si>
+    <t>JOSE MARIA MORALES PADILLA</t>
+  </si>
+  <si>
+    <t>YAJAIRA IUSIRI REYNA RAMOS</t>
+  </si>
+  <si>
+    <t>PRI_PRD</t>
+  </si>
+  <si>
+    <t>JOSE MARIA FRAUSTRO SILLER</t>
+  </si>
+  <si>
+    <t>PATRICIA ORALIA GRADO FALCON</t>
+  </si>
+  <si>
+    <t>JORGE ZERME√ëO INFANTE</t>
+  </si>
+  <si>
+    <t>NADIA HAIDE JARAMILLO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>NARCEDALIA PADRON ARIZPE</t>
+  </si>
+  <si>
+    <t>https://pancoahuila.org.mx/wp-content/uploads/2021/01/Mirasol-Trevino-Puente-1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.iec.org.mx/v1/archivos//acuerdos/2018/IEC.CG.012.2018.%20Acuerdo%20por%20el%20que%20se%20resuelve%20convenio%20de%20coalicion%20PAN%20UDC%20MC.pdf</t>
+  </si>
+  <si>
+    <t>https://www.iec.org.mx/v1/archivos//acuerdos/2018/IEC.CG.013.2018.%20Acuerdo%20por%20el%20que%20se%20resuelve%20coalicion%20PRI%20PVEM%20PNA.pdf</t>
+  </si>
+  <si>
+    <t>https://www.iec.org.mx/v1/archivos//acuerdos/2018/IEC.CG.011.2018.%20Acuerdo%20por%20el%20que%20se%20resuelve%20coalición%20parcial%20PT%20MORENA%20PES.pdf</t>
+  </si>
+  <si>
+    <t>Militancia</t>
   </si>
 </sst>
 </file>
@@ -2484,10 +2556,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S266"/>
+  <dimension ref="A1:S304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="107" workbookViewId="0">
+      <selection activeCell="H305" sqref="H305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14649,6 +14721,766 @@
         <v>40</v>
       </c>
     </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>5001</v>
+      </c>
+      <c r="B267">
+        <v>2021</v>
+      </c>
+      <c r="E267" t="s">
+        <v>691</v>
+      </c>
+      <c r="F267" t="s">
+        <v>692</v>
+      </c>
+      <c r="H267" t="s">
+        <v>21</v>
+      </c>
+      <c r="I267" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>5002</v>
+      </c>
+      <c r="B268">
+        <v>2021</v>
+      </c>
+      <c r="E268" t="s">
+        <v>691</v>
+      </c>
+      <c r="F268" t="s">
+        <v>66</v>
+      </c>
+      <c r="H268" t="s">
+        <v>635</v>
+      </c>
+      <c r="I268" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>5003</v>
+      </c>
+      <c r="B269">
+        <v>2021</v>
+      </c>
+      <c r="E269" t="s">
+        <v>691</v>
+      </c>
+      <c r="F269" t="s">
+        <v>82</v>
+      </c>
+      <c r="H269" t="s">
+        <v>635</v>
+      </c>
+      <c r="I269" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>5004</v>
+      </c>
+      <c r="B270">
+        <v>2021</v>
+      </c>
+      <c r="E270" t="s">
+        <v>31</v>
+      </c>
+      <c r="F270" t="s">
+        <v>97</v>
+      </c>
+      <c r="H270" t="s">
+        <v>24</v>
+      </c>
+      <c r="I270" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>5005</v>
+      </c>
+      <c r="B271">
+        <v>2021</v>
+      </c>
+      <c r="E271" t="s">
+        <v>31</v>
+      </c>
+      <c r="F271" t="s">
+        <v>112</v>
+      </c>
+      <c r="H271" t="s">
+        <v>24</v>
+      </c>
+      <c r="I271" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>5006</v>
+      </c>
+      <c r="B272">
+        <v>2021</v>
+      </c>
+      <c r="E272" t="s">
+        <v>31</v>
+      </c>
+      <c r="F272" t="s">
+        <v>128</v>
+      </c>
+      <c r="H272" t="s">
+        <v>24</v>
+      </c>
+      <c r="I272" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>5007</v>
+      </c>
+      <c r="B273">
+        <v>2021</v>
+      </c>
+      <c r="E273" t="s">
+        <v>691</v>
+      </c>
+      <c r="F273" t="s">
+        <v>694</v>
+      </c>
+      <c r="H273" t="s">
+        <v>21</v>
+      </c>
+      <c r="I273" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>5008</v>
+      </c>
+      <c r="B274">
+        <v>2021</v>
+      </c>
+      <c r="E274" t="s">
+        <v>31</v>
+      </c>
+      <c r="F274" t="s">
+        <v>154</v>
+      </c>
+      <c r="H274" t="s">
+        <v>24</v>
+      </c>
+      <c r="I274" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>5009</v>
+      </c>
+      <c r="B275">
+        <v>2021</v>
+      </c>
+      <c r="E275" t="s">
+        <v>695</v>
+      </c>
+      <c r="F275" t="s">
+        <v>696</v>
+      </c>
+      <c r="H275" t="s">
+        <v>693</v>
+      </c>
+      <c r="I275" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>5010</v>
+      </c>
+      <c r="B276">
+        <v>2021</v>
+      </c>
+      <c r="E276" t="s">
+        <v>31</v>
+      </c>
+      <c r="F276" t="s">
+        <v>188</v>
+      </c>
+      <c r="H276" t="s">
+        <v>24</v>
+      </c>
+      <c r="I276" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>5011</v>
+      </c>
+      <c r="B277">
+        <v>2021</v>
+      </c>
+      <c r="E277" t="s">
+        <v>691</v>
+      </c>
+      <c r="F277" t="s">
+        <v>203</v>
+      </c>
+      <c r="H277" t="s">
+        <v>21</v>
+      </c>
+      <c r="I277" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>5012</v>
+      </c>
+      <c r="B278">
+        <v>2021</v>
+      </c>
+      <c r="E278" t="s">
+        <v>691</v>
+      </c>
+      <c r="F278" t="s">
+        <v>219</v>
+      </c>
+      <c r="H278" t="s">
+        <v>21</v>
+      </c>
+      <c r="I278" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>5013</v>
+      </c>
+      <c r="B279">
+        <v>2021</v>
+      </c>
+      <c r="E279" t="s">
+        <v>31</v>
+      </c>
+      <c r="F279" t="s">
+        <v>697</v>
+      </c>
+      <c r="H279" t="s">
+        <v>24</v>
+      </c>
+      <c r="I279" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>5014</v>
+      </c>
+      <c r="B280">
+        <v>2021</v>
+      </c>
+      <c r="E280" t="s">
+        <v>31</v>
+      </c>
+      <c r="F280" t="s">
+        <v>248</v>
+      </c>
+      <c r="H280" t="s">
+        <v>24</v>
+      </c>
+      <c r="I280" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>5016</v>
+      </c>
+      <c r="B281">
+        <v>2021</v>
+      </c>
+      <c r="E281" t="s">
+        <v>691</v>
+      </c>
+      <c r="F281" t="s">
+        <v>273</v>
+      </c>
+      <c r="H281" t="s">
+        <v>21</v>
+      </c>
+      <c r="I281" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>5017</v>
+      </c>
+      <c r="B282">
+        <v>2021</v>
+      </c>
+      <c r="E282" t="s">
+        <v>695</v>
+      </c>
+      <c r="F282" t="s">
+        <v>698</v>
+      </c>
+      <c r="H282" t="s">
+        <v>699</v>
+      </c>
+      <c r="I282" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>5018</v>
+      </c>
+      <c r="B283">
+        <v>2021</v>
+      </c>
+      <c r="E283" t="s">
+        <v>691</v>
+      </c>
+      <c r="F283" t="s">
+        <v>304</v>
+      </c>
+      <c r="H283" t="s">
+        <v>21</v>
+      </c>
+      <c r="I283" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>5019</v>
+      </c>
+      <c r="B284">
+        <v>2021</v>
+      </c>
+      <c r="E284" t="s">
+        <v>31</v>
+      </c>
+      <c r="F284" t="s">
+        <v>313</v>
+      </c>
+      <c r="H284" t="s">
+        <v>24</v>
+      </c>
+      <c r="I284" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>5020</v>
+      </c>
+      <c r="B285">
+        <v>2021</v>
+      </c>
+      <c r="E285" t="s">
+        <v>31</v>
+      </c>
+      <c r="F285" t="s">
+        <v>338</v>
+      </c>
+      <c r="H285" t="s">
+        <v>24</v>
+      </c>
+      <c r="I285" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>5021</v>
+      </c>
+      <c r="B286">
+        <v>2021</v>
+      </c>
+      <c r="E286" t="s">
+        <v>31</v>
+      </c>
+      <c r="F286" t="s">
+        <v>354</v>
+      </c>
+      <c r="H286" t="s">
+        <v>24</v>
+      </c>
+      <c r="I286" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>5022</v>
+      </c>
+      <c r="B287">
+        <v>2021</v>
+      </c>
+      <c r="E287" t="s">
+        <v>31</v>
+      </c>
+      <c r="F287" t="s">
+        <v>371</v>
+      </c>
+      <c r="H287" t="s">
+        <v>24</v>
+      </c>
+      <c r="I287" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>5023</v>
+      </c>
+      <c r="B288">
+        <v>2021</v>
+      </c>
+      <c r="E288" t="s">
+        <v>31</v>
+      </c>
+      <c r="F288" t="s">
+        <v>700</v>
+      </c>
+      <c r="H288" t="s">
+        <v>21</v>
+      </c>
+      <c r="I288" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>5024</v>
+      </c>
+      <c r="B289">
+        <v>2021</v>
+      </c>
+      <c r="E289" t="s">
+        <v>695</v>
+      </c>
+      <c r="F289" t="s">
+        <v>701</v>
+      </c>
+      <c r="H289" t="s">
+        <v>693</v>
+      </c>
+      <c r="I289" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>5025</v>
+      </c>
+      <c r="B290">
+        <v>2021</v>
+      </c>
+      <c r="E290" t="s">
+        <v>695</v>
+      </c>
+      <c r="F290" t="s">
+        <v>405</v>
+      </c>
+      <c r="H290" t="s">
+        <v>699</v>
+      </c>
+      <c r="I290" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>5026</v>
+      </c>
+      <c r="B291">
+        <v>2021</v>
+      </c>
+      <c r="E291" t="s">
+        <v>31</v>
+      </c>
+      <c r="F291" t="s">
+        <v>426</v>
+      </c>
+      <c r="H291" t="s">
+        <v>24</v>
+      </c>
+      <c r="I291" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>5027</v>
+      </c>
+      <c r="B292">
+        <v>2021</v>
+      </c>
+      <c r="E292" t="s">
+        <v>31</v>
+      </c>
+      <c r="F292" t="s">
+        <v>702</v>
+      </c>
+      <c r="H292" t="s">
+        <v>24</v>
+      </c>
+      <c r="I292" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>5028</v>
+      </c>
+      <c r="B293">
+        <v>2021</v>
+      </c>
+      <c r="E293" t="s">
+        <v>691</v>
+      </c>
+      <c r="F293" t="s">
+        <v>461</v>
+      </c>
+      <c r="H293" t="s">
+        <v>635</v>
+      </c>
+      <c r="I293" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>5029</v>
+      </c>
+      <c r="B294">
+        <v>2021</v>
+      </c>
+      <c r="E294" t="s">
+        <v>691</v>
+      </c>
+      <c r="F294" t="s">
+        <v>703</v>
+      </c>
+      <c r="H294" t="s">
+        <v>635</v>
+      </c>
+      <c r="I294" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>5030</v>
+      </c>
+      <c r="B295">
+        <v>2021</v>
+      </c>
+      <c r="E295" t="s">
+        <v>31</v>
+      </c>
+      <c r="F295" t="s">
+        <v>497</v>
+      </c>
+      <c r="H295" t="s">
+        <v>24</v>
+      </c>
+      <c r="I295" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>5030</v>
+      </c>
+      <c r="B296">
+        <v>2024</v>
+      </c>
+      <c r="E296" t="s">
+        <v>704</v>
+      </c>
+      <c r="F296" t="s">
+        <v>705</v>
+      </c>
+      <c r="H296" t="s">
+        <v>24</v>
+      </c>
+      <c r="I296" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>5031</v>
+      </c>
+      <c r="B297">
+        <v>2021</v>
+      </c>
+      <c r="E297" t="s">
+        <v>31</v>
+      </c>
+      <c r="F297" t="s">
+        <v>514</v>
+      </c>
+      <c r="H297" t="s">
+        <v>24</v>
+      </c>
+      <c r="I297" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>5032</v>
+      </c>
+      <c r="B298">
+        <v>2021</v>
+      </c>
+      <c r="E298" t="s">
+        <v>691</v>
+      </c>
+      <c r="F298" t="s">
+        <v>530</v>
+      </c>
+      <c r="H298" t="s">
+        <v>21</v>
+      </c>
+      <c r="I298" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>5033</v>
+      </c>
+      <c r="B299">
+        <v>2021</v>
+      </c>
+      <c r="E299" t="s">
+        <v>691</v>
+      </c>
+      <c r="F299" t="s">
+        <v>706</v>
+      </c>
+      <c r="H299" t="s">
+        <v>21</v>
+      </c>
+      <c r="I299" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>5034</v>
+      </c>
+      <c r="B300">
+        <v>2021</v>
+      </c>
+      <c r="E300" t="s">
+        <v>691</v>
+      </c>
+      <c r="F300" t="s">
+        <v>561</v>
+      </c>
+      <c r="H300" t="s">
+        <v>21</v>
+      </c>
+      <c r="I300" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>5035</v>
+      </c>
+      <c r="B301">
+        <v>2021</v>
+      </c>
+      <c r="E301" t="s">
+        <v>691</v>
+      </c>
+      <c r="F301" t="s">
+        <v>707</v>
+      </c>
+      <c r="H301" t="s">
+        <v>21</v>
+      </c>
+      <c r="I301" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>5036</v>
+      </c>
+      <c r="B302">
+        <v>2021</v>
+      </c>
+      <c r="E302" t="s">
+        <v>31</v>
+      </c>
+      <c r="F302" t="s">
+        <v>708</v>
+      </c>
+      <c r="H302" t="s">
+        <v>24</v>
+      </c>
+      <c r="I302" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>5037</v>
+      </c>
+      <c r="B303">
+        <v>2021</v>
+      </c>
+      <c r="E303" t="s">
+        <v>691</v>
+      </c>
+      <c r="F303" t="s">
+        <v>709</v>
+      </c>
+      <c r="H303" t="s">
+        <v>21</v>
+      </c>
+      <c r="I303" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>5038</v>
+      </c>
+      <c r="B304">
+        <v>2021</v>
+      </c>
+      <c r="E304" t="s">
+        <v>31</v>
+      </c>
+      <c r="F304" t="s">
+        <v>629</v>
+      </c>
+      <c r="H304" t="s">
+        <v>24</v>
+      </c>
+      <c r="I304" t="s">
+        <v>712</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S266" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
